--- a/similarities/split_global/harmonic_similarity_timestamps_35.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_35.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,722 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+          <t>('0:01:26.923922', '0:01:32.322562')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=14.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>jaah_41</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:11.210000', '0:00:14.450000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=11.21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_79</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:59.320000', '0:02:01.920000')]</t>
+          <t>('0:00:10.240000', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:25.180000', '0:00:55.620000')]</t>
+          <t>('0:00:23.080000', '0:00:30.920000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=119.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-79#t=10.24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=25.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=23.08</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_13</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3'], ['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:maj', 'D:7/C', 'G:maj/B']]</t>
+          <t>['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:05.320000', '0:00:06.840000'), ('0:00:46.750000', '0:00:47.790000')]</t>
+          <t>('0:00:08.740000', '0:00:24.260000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:00.800000', '0:01:09.040000'), ('0:01:17.720000', '0:01:28')]</t>
+          <t>('0:00:00.320000', '0:00:10.960000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32', 'https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=46.75']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=60.8', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-13#t=0.32</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:02:22.140000', '0:02:26.800000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:34.410000', '0:00:39.540000')]</t>
+          <t>('0:00:11.070127', '0:00:13.723731')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=11.070127</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A', 'D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:02:07.600000', '0:02:13.760000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:03.599751', '0:00:08.760294')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Eb', 'F:min7', 'Bb:7'], ['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['G', 'A:min7', 'G/3']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'G:min7/A#', 'C:7'], ['G:min7/A#', 'C:7', 'F:maj']]</t>
+          <t>['A/3', 'B:min7', 'A']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:09.530000', '0:00:14.240000'), ('0:00:08.350000', '0:00:11.880000')]</t>
+          <t>('0:00:00.077870', '0:00:01.981768')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:09.960000', '0:01:14.900000'), ('0:01:11.100000', '0:01:18.700000')]</t>
+          <t>('0:00:16.216000', '0:00:19.647000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=9.53', 'https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=0.07787</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=69.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=71.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=16.216</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+          <t>('0:04:02.220000', '0:04:09.260000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:47.630000')]</t>
+          <t>('0:04:00.860000', '0:04:13.720000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=242.22</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=240.86</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>isophonics_213</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>['E:7', 'A', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000'), ('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:00.442301', '0:00:13.370949')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:09.540000', '0:00:11.420000'), ('0:00:00.580000', '0:00:08.960000')]</t>
+          <t>('0:01:03.460000', '0:01:05.780000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46', 'https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=0.442301</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=9.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=63.46</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_8</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:maj'], ['F:min', 'C:maj', 'F:min'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min/A', 'A:maj'], ['D:min', 'A:maj', 'D:min'], ['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A:min/E', 'E:(3,5,b7,b9)', 'A:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:14.360000', '0:00:19.220000'), ('0:00:01.540000', '0:00:06.680000'), ('0:02:09.380000', '0:02:14.380000')]</t>
+          <t>('0:00:32.520000', '0:00:47.400000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:37.120000', '0:00:40.060000'), ('0:00:10.260000', '0:00:15.940000'), ('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:01:00.820000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=14.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-8#t=32.52</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=37.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=10.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=60.82</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>jaah_66</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_49</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:00.420000', '0:01:04.920000')]</t>
+          <t>('0:00:22.770000', '0:00:29.490000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:18.760000', '0:00:24.660000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=60.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=18.76']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_43</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F', 'F:7', 'Bb']]</t>
+          <t>['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Db', 'Db:7', 'Gb']]</t>
+          <t>['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:29.470000', '0:00:32.220000')]</t>
+          <t>('0:00:07.420000', '0:00:27.640000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:22.947687', '0:00:32.374988')]</t>
+          <t>('0:01:02.900000', '0:01:12.680000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=29.47']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=7.42</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=62.9</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Eb', 'Ab', 'Db']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'F#/4', 'B', 'E/5']]</t>
+          <t>['C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:21.182970', '0:00:25.350952')]</t>
+          <t>('0:01:05.280000', '0:01:14.480000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:02:03.652000', '0:02:12.656000')]</t>
+          <t>('0:00:01.600000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=21.18297']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=65.28</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=123.652']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:04:05.350000', '0:04:12.790000')]</t>
+          <t>('0:02:09.060000', '0:02:14.200000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:22.660000', '0:00:52.100000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=245.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=129.06</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=22.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
